--- a/templates/penelitian_admin_template.xlsx
+++ b/templates/penelitian_admin_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericanthony/Projects/nodejs-fullstack/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBF54F0-C098-7E46-A8A0-634C20D7EFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAE3CC0-44D9-4C4E-92D0-6F791D833154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{BA0B9CE4-5C02-954C-B7EB-646A8C7C3342}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17580" xr2:uid="{BA0B9CE4-5C02-954C-B7EB-646A8C7C3342}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>judul_proposal</t>
-  </si>
-  <si>
     <t>biaya_yang_diajukan</t>
   </si>
   <si>
@@ -84,16 +81,15 @@
   </si>
   <si>
     <t>0309096204</t>
+  </si>
+  <si>
+    <t>judul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-[$Rp-3809]* #,##0_-;\-[$Rp-3809]* #,##0_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -123,13 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,63 +462,63 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="76.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
         <v>133860000</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>133860000</v>
       </c>
       <c r="D2">
@@ -533,22 +528,26 @@
         <v>2021</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="H2:J2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>